--- a/conbo.xlsx
+++ b/conbo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Trần Việt Hùng</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>mobile</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Thành</t>
   </si>
 </sst>
 </file>
@@ -558,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,6 +658,23 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
